--- a/test/files/SQ_BFR5.xlsx
+++ b/test/files/SQ_BFR5.xlsx
@@ -9109,7 +9109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -9118,7 +9118,7 @@
   <cols>
     <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="1" hidden="1" customWidth="1"/>
@@ -9127,7 +9127,7 @@
     <col min="9" max="9" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" style="107" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="2.5" style="1" hidden="1" customWidth="1"/>
@@ -9135,7 +9135,7 @@
     <col min="17" max="17" width="2.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.5" style="49" customWidth="1"/>
     <col min="21" max="21" width="19" style="1" customWidth="1"/>
     <col min="22" max="22" width="34.1640625" style="49" customWidth="1"/>
     <col min="23" max="23" width="39.5" style="49" customWidth="1"/>
